--- a/xlsx/环境_intext.xlsx
+++ b/xlsx/环境_intext.xlsx
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1</t>
   </si>
   <si>
-    <t>熱</t>
+    <t>热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E4%BD%93</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>Template talk-建築</t>
+    <t>Template talk-建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>摩天大樓</t>
+    <t>摩天大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E7%AF%89%E7%B5%90%E6%A7%8B%E7%89%A9</t>
   </si>
   <si>
-    <t>非建築結構物</t>
+    <t>非建筑结构物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%BC%8F%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>塔式建築</t>
+    <t>塔式建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E5%B7%A5%E5%9C%B0</t>
   </si>
   <si>
-    <t>建築工地</t>
+    <t>建筑工地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E6%9D%90%E6%96%99</t>
@@ -347,31 +347,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%8F%8D%E5%8A%9B</t>
   </si>
   <si>
-    <t>結構反力</t>
+    <t>结构反力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E6%94%AF%E6%89%BF</t>
   </si>
   <si>
-    <t>結構支承</t>
+    <t>结构支承</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E6%A7%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>結構構件</t>
+    <t>结构构件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E7%AF%80%E9%BB%9E</t>
   </si>
   <si>
-    <t>結構節點</t>
+    <t>结构节点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%8D%B7%E9%87%8D</t>
   </si>
   <si>
-    <t>結構荷重</t>
+    <t>结构荷重</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%BA%A6_(%E5%B7%A5%E7%A8%8B%E5%AD%A6)</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>建築技術</t>
+    <t>建筑技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%B8%88</t>
@@ -455,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>景觀設計</t>
+    <t>景观设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>職業安全</t>
+    <t>职业安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E7%BE%8E%E5%AD%A6</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%95%86%E5%8B%99%E5%8D%80</t>
   </si>
   <si>
-    <t>中心商務區</t>
+    <t>中心商务区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%88%90%E5%8C%BA</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%9B%B4%E6%96%B0</t>
   </si>
   <si>
-    <t>市區更新</t>
+    <t>市区更新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%95%87%E4%BD%93%E7%B3%BB</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E4%BA%A4%E9%80%9A</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>雅典憲章</t>
+    <t>雅典宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
-    <t>組合城市</t>
+    <t>组合城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E6%88%B7%E5%9F%8E%E5%B8%82</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
-    <t>衛星城市</t>
+    <t>卫星城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>新市鎮</t>
+    <t>新市镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%BB%E9%87%8C%E5%8D%95%E4%BD%8D</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%BC%98%E5%9F%8E%E5%B8%82</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%9F%8E</t>
   </si>
   <si>
-    <t>雙城</t>
+    <t>双城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%9C%B0%E7%90%86%E8%AE%BA</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%BD%B1%E9%9F%BF%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>環境影響評估</t>
+    <t>环境影响评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E6%89%BF%E8%BD%BD%E5%8A%9B</t>
@@ -767,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8F%E9%A2%A8%E6%A8%93</t>
   </si>
   <si>
-    <t>屏風樓</t>
+    <t>屏风楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%9B%E5%B0%BE%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>爛尾建築</t>
+    <t>烂尾建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%A0%B5%E5%A1%9E</t>
@@ -791,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%8E%AE</t>
   </si>
   <si>
-    <t>鬼鎮</t>
+    <t>鬼镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E6%99%AF%E5%9B%AD%E6%9E%97%E5%AD%A6</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態學</t>
+    <t>生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -851,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境科學</t>
+    <t>环境科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%AE%B9%E7%A7%AF%E7%8E%87</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%94%B9%E6%AD%A3</t>
   </si>
   <si>
-    <t>市區改正</t>
+    <t>市区改正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E5%9F%8E%E5%B8%82%E8%A7%84%E5%88%92</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>香港新市鎮</t>
+    <t>香港新市镇</t>
   </si>
 </sst>
 </file>
